--- a/data/trans_bre/P6904-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P6904-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P6904-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P6904-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,07</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,62</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,15</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,13</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,54%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,74%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,95%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,6%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,61; 36,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,35; 38,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,7; 51,87</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,77; 59,89</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,88; 95,91</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,31; 264,69</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,18; 204,15</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-92,47; —</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,87</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,61</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,08</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-10,41</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,21%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,37%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,9%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,52%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,83; 8,37</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,88; 8,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,83; 21,65</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,22; 11,2</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,98; 18,64</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,46; 17,37</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,42; 42,9</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,8; 21,84</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,97</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,11</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,16</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,66%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,64%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,15%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,23%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,69; 14,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,77; 13,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,36; 15,14</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,91; 9,91</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,13; 26,46</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,58; 26,56</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,53; 25,68</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,02; 18,02</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,64</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,9</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,01</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,35</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,8%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,74%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,36%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,04%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,91; 35,3</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,95; 14,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,61; 26,26</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,03; 17,97</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,5; 85,23</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,24; 30,4</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,69; 56,14</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,88; 32,38</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-34,85</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,6</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>21,53</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,0</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-55,83%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,93%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,76%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,54%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,16; -0,3</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,85; 32,45</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,71; 42,27</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,95; 20,54</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-88,85; -0,54</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,02; 68,32</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,05; 86,84</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,58; 37,95</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>21,15</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,04%</t>
         </is>
       </c>
     </row>
@@ -1183,27 +1183,27 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>-36,85; 82,49</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
+      <c r="H15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
+      <c r="I15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,44; 1714,42</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,17</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,65</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,94%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,77%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,85%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,64%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,72; 7,71</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,06; 5,98</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,05; 15,55</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,59; 8,38</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,42; 15,7</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,8; 11,88</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,7; 28,47</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,0; 14,55</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P6904-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P6904-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,13</t>
+          <t>10,52</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>21,6%</t>
+          <t>34,89%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-70,77; 59,89</t>
+          <t>-68,92; 60,71</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,14 +703,14 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-92,47; —</t>
+          <t>-89,42; —</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-10,41</t>
+          <t>-10,57</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-16,52%</t>
+          <t>-16,94%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-33,22; 11,2</t>
+          <t>-32,4; 11,47</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,14 +803,14 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-44,8; 21,84</t>
+          <t>-45,58; 21,87</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-3,16</t>
+          <t>-3,14</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-5,23%</t>
+          <t>-5,18%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-16,91; 9,91</t>
+          <t>-16,88; 10,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,14 +903,14 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-25,02; 18,02</t>
+          <t>-24,63; 17,94</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,35</t>
+          <t>11,15</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>10,04%</t>
+          <t>17,66%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,03; 17,97</t>
+          <t>-2,06; 27,96</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,14 +1003,14 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-8,88; 32,38</t>
+          <t>-3,14; 51,73</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>6,0</t>
+          <t>6,77</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>9,54%</t>
+          <t>10,83%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,95; 20,54</t>
+          <t>-7,57; 21,06</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,14 +1103,14 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-11,58; 37,95</t>
+          <t>-10,58; 39,71</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>21,15</t>
+          <t>22,79</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>41,04%</t>
+          <t>45,47%</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-36,85; 82,49</t>
+          <t>-35,0; 82,34</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,14 +1203,14 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-45,44; 1714,42</t>
+          <t>-44,88; inf</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,49</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-3,17</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>7,65</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,94%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-5,77%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>12,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>1,64%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1268,54 +1268,154 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>-0,49</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>-3,17</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>7,65</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>3,79</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>-0,94%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>-5,77%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>12,85%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>6,17%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>-8,72; 7,71</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>-12,06; 5,98</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>-1,05; 15,55</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-6,59; 8,38</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>-4,58; 14,54</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>-15,42; 15,7</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>-20,8; 11,88</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>-1,7; 28,47</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-10,0; 14,55</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-7,19; 24,61</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1325,6 +1425,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P6904-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P6904-Edad-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-13,61; 36,65</t>
+          <t>-11,86; 38,91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-48,35; 38,02</t>
+          <t>-43,69; 39,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-21,7; 51,87</t>
+          <t>-24,19; 53,18</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-68,92; 60,71</t>
+          <t>-71,02; 59,47</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-23,88; 95,91</t>
+          <t>-20,07; 107,08</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-82,31; 264,69</t>
+          <t>-76,75; 409,81</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-29,18; 204,15</t>
+          <t>-29,93; 190,32</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-89,42; —</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-19,83; 8,37</t>
+          <t>-19,44; 8,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-26,88; 8,55</t>
+          <t>-24,31; 9,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-14,83; 21,65</t>
+          <t>-13,29; 21,55</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-32,4; 11,47</t>
+          <t>-30,8; 13,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-36,98; 18,64</t>
+          <t>-37,75; 19,86</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-42,46; 17,37</t>
+          <t>-39,39; 18,82</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-22,42; 42,9</t>
+          <t>-19,53; 43,36</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-45,58; 21,87</t>
+          <t>-42,96; 28,58</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-14,69; 14,03</t>
+          <t>-15,38; 13,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-17,77; 13,73</t>
+          <t>-18,96; 12,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-13,36; 15,14</t>
+          <t>-15,88; 14,22</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-16,88; 10,16</t>
+          <t>-17,19; 11,15</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-23,13; 26,46</t>
+          <t>-24,71; 25,64</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-28,58; 26,56</t>
+          <t>-29,54; 25,02</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-19,53; 25,68</t>
+          <t>-23,03; 24,48</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-24,63; 17,94</t>
+          <t>-25,66; 22,65</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 35,3</t>
+          <t>-1,53; 34,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-23,95; 14,19</t>
+          <t>-22,75; 15,96</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-9,61; 26,26</t>
+          <t>-9,26; 26,23</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 27,96</t>
+          <t>-1,54; 29,51</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-6,5; 85,23</t>
+          <t>-3,87; 81,39</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-44,24; 30,4</t>
+          <t>-41,68; 36,19</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-15,69; 56,14</t>
+          <t>-14,6; 56,31</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 51,73</t>
+          <t>-3,2; 53,05</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-57,16; -0,3</t>
+          <t>-57,44; -7,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-15,85; 32,45</t>
+          <t>-17,17; 33,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 42,27</t>
+          <t>1,79; 42,56</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-7,57; 21,06</t>
+          <t>-6,83; 22,04</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-88,85; -0,54</t>
+          <t>-88,36; -12,05</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-25,02; 68,32</t>
+          <t>-25,75; 75,45</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 86,84</t>
+          <t>2,66; 81,61</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-10,58; 39,71</t>
+          <t>-9,64; 42,34</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-35,0; 82,34</t>
+          <t>-39,78; 82,17</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-44,88; inf</t>
+          <t>-45,39; 1738,99</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-8,72; 7,71</t>
+          <t>-9,04; 7,74</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-12,06; 5,98</t>
+          <t>-12,72; 5,03</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 15,55</t>
+          <t>-0,16; 16,18</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-4,58; 14,54</t>
+          <t>-4,06; 15,77</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-15,42; 15,7</t>
+          <t>-16,13; 15,39</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-20,8; 11,88</t>
+          <t>-22,0; 9,79</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 28,47</t>
+          <t>-0,31; 29,22</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-7,19; 24,61</t>
+          <t>-6,5; 27,33</t>
         </is>
       </c>
     </row>
